--- a/evaluation/samples.xlsx
+++ b/evaluation/samples.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NicoleHuang/OneDrive - Australian National University/COMP8800/diffSimilarTech/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NicoleHuang/OneDrive - Australian National University/COMP8800/diffSimilarTech/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27394B88-40D9-824E-B515-782B0AA23E9E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7EB5FBA9-6360-2349-940C-15DBDFF46422}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pattern1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="664">
   <si>
     <t>Sentence</t>
   </si>
@@ -2008,6 +2008,15 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -2378,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2397,44 +2406,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>660</v>
+      </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>659</v>
+      </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>659</v>
+      </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>659</v>
+      </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>659</v>
+      </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2442,10 +2466,10 @@
         <v>659</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2453,26 +2477,32 @@
         <v>659</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>659</v>
+      </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>659</v>
+      </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2480,29 +2510,32 @@
         <v>659</v>
       </c>
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2510,18 +2543,21 @@
         <v>659</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>659</v>
+      </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2529,10 +2565,10 @@
         <v>659</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2540,21 +2576,21 @@
         <v>659</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>659</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2562,448 +2598,421 @@
         <v>659</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>659</v>
-      </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>659</v>
-      </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>659</v>
-      </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>659</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>659</v>
-      </c>
-      <c r="B44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>659</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>659</v>
-      </c>
-      <c r="B59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>659</v>
-      </c>
-      <c r="B63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>120</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>659</v>
-      </c>
-      <c r="B70" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>40</v>
       </c>
@@ -3012,524 +3021,632 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C71">
+    <sortCondition ref="A2:A71"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="152.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C9" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C10" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C12" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B13" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C13" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B14" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B16" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C16" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B17" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C17" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B18" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C18" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B19" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C19" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B21" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C21" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B22" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B25" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C25" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B26" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C26" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C27" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B28" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C28" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B30" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B31" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="C32" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B33" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B35" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="C35" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B36" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C36" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B37" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B38" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B39" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B40" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="C41" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B42" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="C42" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B43" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="C43" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="C44" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="C45" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B46" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B47" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="C47" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B48" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B49" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B50" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="C50" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B51" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B52" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B53" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B54" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B55" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="C56" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B58" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B59" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B61" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B62" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="C62" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B63" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B64" t="s">
@@ -3537,7 +3654,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B65" t="s">
@@ -3545,7 +3662,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B66" t="s">
@@ -3553,7 +3670,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B67" t="s">
@@ -3561,15 +3678,15 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B68" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B69" t="s">
@@ -3577,7 +3694,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B70" t="s">
@@ -3585,7 +3702,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B71" t="s">
@@ -3599,578 +3716,655 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="72.6640625" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C10" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B12" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C12" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B15" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C15" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B17" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B18" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B19" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="D19" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B24" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B26" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="D27" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B28" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="D28" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="D30" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="D31" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B32" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="D32" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B33" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B34" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B36" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B40" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="C40" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B41" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B42" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="C42" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B44" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B45" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="C45" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B47" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="C47" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B48" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B49" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="D49" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B50" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B51" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="D51" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>301</v>
       </c>
       <c r="B52" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>303</v>
       </c>
       <c r="B53" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B54" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="C54" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>306</v>
       </c>
       <c r="B55" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>308</v>
       </c>
       <c r="B56" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B57" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>313</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B60" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B61" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="D61" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B62" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B63" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B64" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="D64" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>324</v>
       </c>
       <c r="B65" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B66" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B67" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B68" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B69" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B70" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="C70" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B71" t="s">
         <v>333</v>
+      </c>
+      <c r="C71" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -4180,14 +4374,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="78" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4195,23 +4394,23 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B4" t="s">
@@ -4219,7 +4418,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B5" t="s">
@@ -4227,7 +4426,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B6" t="s">
@@ -4235,15 +4434,15 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B8" t="s">
@@ -4251,31 +4450,31 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B11" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B12" t="s">
@@ -4283,7 +4482,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B13" t="s">
@@ -4291,7 +4490,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B14" t="s">
@@ -4299,459 +4498,492 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B15" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>355</v>
       </c>
       <c r="B16" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B17" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B18" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>361</v>
       </c>
       <c r="B19" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>363</v>
       </c>
       <c r="B20" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C20" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>364</v>
       </c>
       <c r="B21" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C21" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>366</v>
       </c>
       <c r="B22" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>368</v>
       </c>
       <c r="B23" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>370</v>
       </c>
       <c r="B24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>371</v>
       </c>
       <c r="B25" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>373</v>
       </c>
       <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>374</v>
       </c>
       <c r="B27" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B28" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>377</v>
       </c>
       <c r="B29" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>379</v>
       </c>
       <c r="B30" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>382</v>
       </c>
       <c r="B32" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>384</v>
       </c>
       <c r="B33" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>386</v>
       </c>
       <c r="B34" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>387</v>
       </c>
       <c r="B35" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>389</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>390</v>
       </c>
       <c r="B37" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B38" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>394</v>
       </c>
       <c r="B40" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B41" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B43" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B46" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>404</v>
       </c>
       <c r="B47" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="C47" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>406</v>
       </c>
       <c r="B48" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="C48" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B49" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>408</v>
       </c>
       <c r="B51" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>410</v>
       </c>
       <c r="B52" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="C52" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>412</v>
       </c>
       <c r="B53" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>413</v>
       </c>
       <c r="B54" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>415</v>
       </c>
       <c r="B55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B56" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>418</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="C57" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B58" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="C58" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>421</v>
       </c>
       <c r="B59" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="C59" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>423</v>
       </c>
       <c r="B60" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B61" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>427</v>
       </c>
       <c r="B62" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>428</v>
       </c>
       <c r="B63" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>430</v>
       </c>
       <c r="B64" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>432</v>
       </c>
       <c r="B65" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>434</v>
       </c>
       <c r="B66" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>436</v>
       </c>
       <c r="B67" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>438</v>
       </c>
       <c r="B68" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="C68" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>440</v>
       </c>
       <c r="B69" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B70" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="C70" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B71" t="s">
         <v>166</v>
+      </c>
+      <c r="C71" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -4763,52 +4995,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="90.5" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>444</v>
       </c>
       <c r="B2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>446</v>
       </c>
       <c r="B3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>448</v>
       </c>
       <c r="B4" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>450</v>
       </c>
       <c r="B5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B6" t="s">
@@ -4816,7 +5053,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>454</v>
       </c>
       <c r="B7" t="s">
@@ -4824,7 +5061,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B8" t="s">
@@ -4832,7 +5069,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>456</v>
       </c>
       <c r="B9" t="s">
@@ -4840,7 +5077,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>457</v>
       </c>
       <c r="B10" t="s">
@@ -4848,47 +5085,47 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B11" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>460</v>
       </c>
       <c r="B12" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>462</v>
       </c>
       <c r="B13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>463</v>
       </c>
       <c r="B14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>465</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>466</v>
       </c>
       <c r="B16" t="s">
@@ -4896,15 +5133,15 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>467</v>
       </c>
       <c r="B17" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>469</v>
       </c>
       <c r="B18" t="s">
@@ -4912,7 +5149,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>471</v>
       </c>
       <c r="B19" t="s">
@@ -4920,7 +5157,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>472</v>
       </c>
       <c r="B20" t="s">
@@ -4928,7 +5165,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>473</v>
       </c>
       <c r="B21" t="s">
@@ -4936,7 +5173,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>475</v>
       </c>
       <c r="B22" t="s">
@@ -4944,23 +5181,23 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>476</v>
       </c>
       <c r="B23" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>477</v>
       </c>
       <c r="B24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>478</v>
       </c>
       <c r="B25" t="s">
@@ -4968,7 +5205,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>479</v>
       </c>
       <c r="B26" t="s">
@@ -4976,7 +5213,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>480</v>
       </c>
       <c r="B27" t="s">
@@ -4984,63 +5221,63 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>482</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>483</v>
       </c>
       <c r="B29" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>485</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>486</v>
       </c>
       <c r="B31" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>488</v>
       </c>
       <c r="B32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>489</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>490</v>
       </c>
       <c r="B34" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>492</v>
       </c>
       <c r="B35" t="s">
@@ -5048,7 +5285,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>493</v>
       </c>
       <c r="B36" t="s">
@@ -5056,7 +5293,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>494</v>
       </c>
       <c r="B37" t="s">
@@ -5064,7 +5301,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>495</v>
       </c>
       <c r="B38" t="s">
@@ -5072,15 +5309,15 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>496</v>
       </c>
       <c r="B39" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>498</v>
       </c>
       <c r="B40" t="s">
@@ -5088,7 +5325,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>500</v>
       </c>
       <c r="B41" t="s">
@@ -5096,7 +5333,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>501</v>
       </c>
       <c r="B42" t="s">
@@ -5104,7 +5341,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>502</v>
       </c>
       <c r="B43" t="s">
@@ -5112,15 +5349,15 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>504</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>505</v>
       </c>
       <c r="B45" t="s">
@@ -5128,15 +5365,15 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>507</v>
       </c>
       <c r="B46" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>508</v>
       </c>
       <c r="B47" t="s">
@@ -5144,7 +5381,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>510</v>
       </c>
       <c r="B48" t="s">
@@ -5152,15 +5389,15 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>512</v>
       </c>
       <c r="B49" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>513</v>
       </c>
       <c r="B50" t="s">
@@ -5168,15 +5405,15 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>515</v>
       </c>
       <c r="B51" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B52" t="s">
@@ -5184,15 +5421,15 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>519</v>
       </c>
       <c r="B53" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>521</v>
       </c>
       <c r="B54" t="s">
@@ -5200,31 +5437,31 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>522</v>
       </c>
       <c r="B55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>523</v>
       </c>
       <c r="B56" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>524</v>
       </c>
       <c r="B57" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>526</v>
       </c>
       <c r="B58" t="s">
@@ -5232,7 +5469,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>528</v>
       </c>
       <c r="B59" t="s">
@@ -5240,7 +5477,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>530</v>
       </c>
       <c r="B60" t="s">
@@ -5248,7 +5485,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>531</v>
       </c>
       <c r="B61" t="s">
@@ -5256,7 +5493,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>532</v>
       </c>
       <c r="B62" t="s">
@@ -5264,31 +5501,31 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>534</v>
       </c>
       <c r="B63" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>536</v>
       </c>
       <c r="B64" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>538</v>
       </c>
       <c r="B65" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>540</v>
       </c>
       <c r="B66" t="s">
@@ -5296,7 +5533,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>542</v>
       </c>
       <c r="B67" t="s">
@@ -5304,7 +5541,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="3" t="s">
         <v>544</v>
       </c>
       <c r="B68" t="s">
@@ -5312,23 +5549,23 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>545</v>
       </c>
       <c r="B69" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>546</v>
       </c>
       <c r="B70" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>548</v>
       </c>
       <c r="B71" t="s">
@@ -5344,20 +5581,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="80.6640625" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>550</v>
       </c>
       <c r="B2" t="s">
@@ -5365,7 +5607,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>551</v>
       </c>
       <c r="B3" t="s">
@@ -5373,31 +5615,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>553</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>554</v>
       </c>
       <c r="B5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>555</v>
       </c>
       <c r="B6" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>557</v>
       </c>
       <c r="B7" t="s">
@@ -5405,39 +5647,39 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>558</v>
       </c>
       <c r="B8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>559</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>560</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>561</v>
       </c>
       <c r="B11" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>563</v>
       </c>
       <c r="B12" t="s">
@@ -5445,7 +5687,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>564</v>
       </c>
       <c r="B13" t="s">
@@ -5453,23 +5695,23 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>565</v>
       </c>
       <c r="B14" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>567</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>568</v>
       </c>
       <c r="B16" t="s">
@@ -5477,23 +5719,23 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>570</v>
       </c>
       <c r="B17" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>572</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>573</v>
       </c>
       <c r="B19" t="s">
@@ -5501,23 +5743,23 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>574</v>
       </c>
       <c r="B20" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>576</v>
       </c>
       <c r="B21" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>578</v>
       </c>
       <c r="B22" t="s">
@@ -5525,7 +5767,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>579</v>
       </c>
       <c r="B23" t="s">
@@ -5533,23 +5775,23 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>581</v>
       </c>
       <c r="B24" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>583</v>
       </c>
       <c r="B25" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>585</v>
       </c>
       <c r="B26" t="s">
@@ -5557,7 +5799,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>586</v>
       </c>
       <c r="B27" t="s">
@@ -5565,7 +5807,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>588</v>
       </c>
       <c r="B28" t="s">
@@ -5573,79 +5815,79 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>589</v>
       </c>
       <c r="B29" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>591</v>
       </c>
       <c r="B30" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>593</v>
       </c>
       <c r="B31" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>595</v>
       </c>
       <c r="B32" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>597</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>598</v>
       </c>
       <c r="B34" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>600</v>
       </c>
       <c r="B35" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>602</v>
       </c>
       <c r="B36" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>604</v>
       </c>
       <c r="B37" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>606</v>
       </c>
       <c r="B38" t="s">
@@ -5653,63 +5895,63 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>607</v>
       </c>
       <c r="B39" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>608</v>
       </c>
       <c r="B40" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>610</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>611</v>
       </c>
       <c r="B42" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>613</v>
       </c>
       <c r="B43" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>615</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>616</v>
       </c>
       <c r="B45" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>618</v>
       </c>
       <c r="B46" t="s">
@@ -5717,7 +5959,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>619</v>
       </c>
       <c r="B47" t="s">
@@ -5725,7 +5967,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>620</v>
       </c>
       <c r="B48" t="s">
@@ -5733,7 +5975,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>622</v>
       </c>
       <c r="B49" t="s">
@@ -5741,31 +5983,31 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>623</v>
       </c>
       <c r="B50" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>624</v>
       </c>
       <c r="B51" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>626</v>
       </c>
       <c r="B52" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>628</v>
       </c>
       <c r="B53" t="s">
@@ -5773,15 +6015,15 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>629</v>
       </c>
       <c r="B54" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>631</v>
       </c>
       <c r="B55" t="s">
@@ -5789,7 +6031,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>633</v>
       </c>
       <c r="B56" t="s">
@@ -5797,31 +6039,31 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>634</v>
       </c>
       <c r="B57" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>636</v>
       </c>
       <c r="B58" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>638</v>
       </c>
       <c r="B59" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>639</v>
       </c>
       <c r="B60" t="s">
@@ -5829,7 +6071,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>641</v>
       </c>
       <c r="B61" t="s">
@@ -5837,15 +6079,15 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>643</v>
       </c>
       <c r="B62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>644</v>
       </c>
       <c r="B63" t="s">
@@ -5853,7 +6095,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>645</v>
       </c>
       <c r="B64" t="s">
@@ -5861,31 +6103,31 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>647</v>
       </c>
       <c r="B65" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>649</v>
       </c>
       <c r="B66" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>650</v>
       </c>
       <c r="B67" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>651</v>
       </c>
       <c r="B68" t="s">
@@ -5893,23 +6135,23 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>653</v>
       </c>
       <c r="B69" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>655</v>
       </c>
       <c r="B70" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>657</v>
       </c>
       <c r="B71" t="s">
